--- a/000.커리큐럼/주단위상세일정엑셀/FED_PJ_2022_리뷰체크.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED_PJ_2022_리뷰체크.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>23.3.14(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차PJ JS메뉴 여닫기 기능수정.팀플 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차PJ 리뷰 및 팀플 iframe 프리로드관련 리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +891,8 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1983,7 +1991,7 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>21</v>
@@ -2004,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" s="27" t="s">
         <v>21</v>
@@ -2028,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8">
@@ -2041,7 +2049,9 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="21"/>
+      <c r="J29" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
@@ -2135,7 +2145,7 @@
       </c>
       <c r="C32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>21</v>
@@ -2156,7 +2166,7 @@
         <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>21</v>
@@ -2180,7 +2190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8">
@@ -2193,7 +2203,9 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="21"/>
+      <c r="J33" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="26"/>
@@ -2437,51 +2449,51 @@
       <c r="B40" s="37"/>
       <c r="C40" s="11"/>
       <c r="D40" s="17">
-        <f>COUNTIF(D2:D38,"○")</f>
+        <f t="shared" ref="D40:I40" si="1">COUNTIF(D2:D38,"○")</f>
         <v>6</v>
       </c>
       <c r="E40" s="17">
-        <f>COUNTIF(E2:E38,"○")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="17">
-        <f>COUNTIF(F2:F38,"○")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G40" s="17">
-        <f>COUNTIF(G2:G38,"○")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="17">
-        <f>COUNTIF(H2:H38,"○")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I40" s="17">
-        <f>COUNTIF(I2:I38,"○")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J40" s="22">
-        <f t="shared" ref="J40:O40" si="1">COUNTIF(J2:J38,"○")</f>
-        <v>0</v>
+        <f t="shared" ref="J40:O40" si="2">COUNTIF(J2:J38,"○")</f>
+        <v>2</v>
       </c>
       <c r="K40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P40" s="28">
